--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace\testautomationframework\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace\test-automation-framework\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD1F6CB-5C31-4CD3-998F-015B0009D2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B205BC-1B3F-480C-83A7-C0084CBB7ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="1245" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="2" r:id="rId1"/>
-    <sheet name="dev" sheetId="4" r:id="rId2"/>
-    <sheet name="service-now" sheetId="3" r:id="rId3"/>
+    <sheet name="dev" sheetId="4" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="staging" sheetId="5" r:id="rId3"/>
+    <sheet name="for-testing" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10867" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10876" uniqueCount="775">
   <si>
     <t>Web Browser</t>
   </si>
@@ -2779,10 +2780,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AC0A20-614C-4940-A648-463A17777069}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA7080-1965-4578-95A0-54ECD4681C99}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -4918,12 +4972,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AC0A20-614C-4940-A648-463A17777069}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ED8851-F5C3-477A-A7B6-FC10CB1784DD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,13 +5025,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A58F9F-B1BE-4B00-B135-102D58152E21}">
   <dimension ref="A1:Q723"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <pane ySplit="1" topLeftCell="A714" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P722" sqref="P722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
